--- a/Prueba/cutparaDM/DM/Caracateristicas_DM_PruebAA.xlsx
+++ b/Prueba/cutparaDM/DM/Caracateristicas_DM_PruebAA.xlsx
@@ -1,32 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nataly\Documents\Trabajo-de-grado_Artefactos\Prueba\cutparaDM\DM\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Entropia</t>
   </si>
   <si>
     <t>sSIMN</t>
   </si>
+  <si>
+    <t>clase</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,22 +86,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -135,7 +155,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -167,9 +187,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -201,6 +222,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -376,1647 +398,2096 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C149"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D149"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0.8083150470854424</v>
+      <c r="B2" s="2">
+        <v>0</v>
       </c>
       <c r="C2">
+        <v>0.80831504708544244</v>
+      </c>
+      <c r="D2">
         <v>0.7223027637583096</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0.6535154539943274</v>
+      <c r="B3" s="2">
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.8524868057754011</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>0.65351545399432742</v>
+      </c>
+      <c r="D3">
+        <v>0.85248680577540115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>0.5928269771960658</v>
+      <c r="B4" s="2">
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.7918706145746358</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.59282697719606581</v>
+      </c>
+      <c r="D4">
+        <v>0.79187061457463581</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>0.9141456972438036</v>
+      <c r="B5" s="2">
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.7554128122105085</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>0.91414569724380357</v>
+      </c>
+      <c r="D5">
+        <v>0.75541281221050849</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>0.7077677119720809</v>
+      <c r="B6" s="2">
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.750962721216311</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.70776771197208088</v>
+      </c>
+      <c r="D6">
+        <v>0.75096272121631102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>0.821644560779331</v>
+      <c r="B7" s="2">
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0.5708668759887868</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.82164456077933101</v>
+      </c>
+      <c r="D7">
+        <v>0.57086687598878683</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>1.443057919425773</v>
+      <c r="B8" s="2">
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2939160042234878</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>1.4430579194257731</v>
+      </c>
+      <c r="D8">
+        <v>0.29391600422348779</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>0.4867313573533601</v>
+      <c r="B9" s="2">
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0.8804665604588044</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.48673135735336009</v>
+      </c>
+      <c r="D9">
+        <v>0.88046656045880445</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10">
         <v>0.8464924066961611</v>
       </c>
-      <c r="C10">
-        <v>0.6560969119245637</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10">
+        <v>0.65609691192456365</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11">
         <v>0.7754968532560319</v>
       </c>
-      <c r="C11">
-        <v>0.7016935934920591</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11">
+        <v>0.70169359349205906</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>0.6926770692191804</v>
+      <c r="B12" s="2">
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>0.5265529343328847</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.69267706921918037</v>
+      </c>
+      <c r="D12">
+        <v>0.52655293433288475</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>0.9479943916619124</v>
+      <c r="B13" s="2">
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>0.5488619067431149</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.94799439166191235</v>
+      </c>
+      <c r="D13">
+        <v>0.54886190674311486</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>0.9100832586081016</v>
+      <c r="B14" s="2">
+        <v>0</v>
       </c>
       <c r="C14">
+        <v>0.91008325860810158</v>
+      </c>
+      <c r="D14">
         <v>0.4737809849304237</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>0.7908508059767626</v>
+      <c r="B15" s="2">
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>0.8234043463110284</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.79085080597676261</v>
+      </c>
+      <c r="D15">
+        <v>0.82340434631102843</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>0.8938832071591022</v>
+      <c r="B16" s="2">
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>0.7444256385617045</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.89388320715910219</v>
+      </c>
+      <c r="D16">
+        <v>0.74442563856170452</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>0.8327564892022986</v>
+      <c r="B17" s="2">
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>0.8294059084097247</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>0.83275648920229861</v>
+      </c>
+      <c r="D17">
+        <v>0.82940590840972472</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>0.7067037940376747</v>
+      <c r="B18" s="2">
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>0.8259297849956309</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>0.70670379403767469</v>
+      </c>
+      <c r="D18">
+        <v>0.82592978499563086</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
+        <v>0</v>
+      </c>
+      <c r="C19">
         <v>0.6771107255658475</v>
       </c>
-      <c r="C19">
-        <v>0.8594819699972471</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0.85948196999724713</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20">
-        <v>0.5111183820668559</v>
+      <c r="B20" s="2">
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>0.8379371630353555</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.51111838206685589</v>
+      </c>
+      <c r="D20">
+        <v>0.83793716303535548</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>0.8762646359352311</v>
+      <c r="B21" s="2">
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>0.7613629249723334</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.87626463593523107</v>
+      </c>
+      <c r="D21">
+        <v>0.76136292497233338</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="2">
+        <v>0</v>
+      </c>
+      <c r="C22">
         <v>1.7538468308469</v>
       </c>
-      <c r="C22">
-        <v>0.5252358180029975</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22">
+        <v>0.52523581800299746</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23">
-        <v>0.8009221282000468</v>
+      <c r="B23" s="2">
+        <v>0</v>
       </c>
       <c r="C23">
+        <v>0.80092212820004682</v>
+      </c>
+      <c r="D23">
         <v>0.6658016717512879</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24">
-        <v>0.5122158643907035</v>
+      <c r="B24" s="2">
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>0.7369575698172542</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0.51221586439070355</v>
+      </c>
+      <c r="D24">
+        <v>0.73695756981725424</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25">
-        <v>1.216064416413216</v>
+      <c r="B25" s="2">
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>0.7140775001114754</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>1.2160644164132159</v>
+      </c>
+      <c r="D25">
+        <v>0.71407750011147542</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26">
-        <v>0.8411507825007684</v>
+      <c r="B26" s="2">
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>0.718453975576637</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>0.84115078250076836</v>
+      </c>
+      <c r="D26">
+        <v>0.71845397557663704</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27">
-        <v>0.7218608594738701</v>
+      <c r="B27" s="2">
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>0.6718620846192824</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>0.72186085947387013</v>
+      </c>
+      <c r="D27">
+        <v>0.67186208461928243</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28">
-        <v>0.8376987341132903</v>
+      <c r="B28" s="2">
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>0.7381095065343788</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.83769873411329032</v>
+      </c>
+      <c r="D28">
+        <v>0.73810950653437879</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29">
-        <v>0.7634067785639544</v>
+      <c r="B29" s="2">
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>0.7690532230056407</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>0.76340677856395445</v>
+      </c>
+      <c r="D29">
+        <v>0.76905322300564072</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30">
-        <v>0.7763786698329119</v>
+      <c r="B30" s="2">
+        <v>0</v>
       </c>
       <c r="C30">
-        <v>0.7086404922023475</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>0.77637866983291193</v>
+      </c>
+      <c r="D30">
+        <v>0.70864049220234748</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="2">
+        <v>0</v>
+      </c>
+      <c r="C31">
         <v>0.2086650447932954</v>
       </c>
-      <c r="C31">
-        <v>0.9112635357190391</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31">
+        <v>0.91126353571903906</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32">
-        <v>0.3478557642539142</v>
+      <c r="B32" s="2">
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>0.7756809095987254</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>0.34785576425391418</v>
+      </c>
+      <c r="D32">
+        <v>0.77568090959872538</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33">
-        <v>0.7262662838936887</v>
+      <c r="B33" s="2">
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>0.7741712322424402</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>0.72626628389368875</v>
+      </c>
+      <c r="D33">
+        <v>0.77417123224244022</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34">
-        <v>0.6076605122519966</v>
+      <c r="B34" s="2">
+        <v>0</v>
       </c>
       <c r="C34">
+        <v>0.60766051225199658</v>
+      </c>
+      <c r="D34">
         <v>0.6862078934549507</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35">
-        <v>0.744135786325692</v>
+      <c r="B35" s="2">
+        <v>0</v>
       </c>
       <c r="C35">
+        <v>0.74413578632569199</v>
+      </c>
+      <c r="D35">
         <v>0.8518678405457728</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36">
-        <v>0.7047603763468059</v>
+      <c r="B36" s="2">
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>0.7392077132485396</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>0.70476037634680588</v>
+      </c>
+      <c r="D36">
+        <v>0.73920771324853962</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37">
-        <v>0.6149730993590062</v>
+      <c r="B37" s="2">
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>0.7597157076559249</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>0.61497309935900624</v>
+      </c>
+      <c r="D37">
+        <v>0.75971570765592489</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38">
-        <v>0.8417742564818281</v>
+      <c r="B38" s="2">
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>0.7175865694909282</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>0.84177425648182813</v>
+      </c>
+      <c r="D38">
+        <v>0.71758656949092825</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39">
-        <v>0.9169525191350612</v>
+      <c r="B39" s="2">
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>0.7102734087505608</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>0.91695251913506115</v>
+      </c>
+      <c r="D39">
+        <v>0.71027340875056078</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40">
-        <v>0.7001065948881942</v>
+      <c r="B40" s="2">
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>0.7245865371431984</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>0.70010659488819416</v>
+      </c>
+      <c r="D40">
+        <v>0.72458653714319843</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="2">
+        <v>0</v>
+      </c>
+      <c r="C41">
         <v>0.8799640052656903</v>
       </c>
-      <c r="C41">
-        <v>0.6319743117526682</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="D41">
+        <v>0.63197431175266816</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42">
-        <v>0.751088041024184</v>
+      <c r="B42" s="2">
+        <v>0</v>
       </c>
       <c r="C42">
-        <v>0.6682134452559181</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>0.75108804102418403</v>
+      </c>
+      <c r="D42">
+        <v>0.66821344525591808</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43">
-        <v>0.8458341849251133</v>
+      <c r="B43" s="2">
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>0.604601939169545</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>0.84583418492511331</v>
+      </c>
+      <c r="D43">
+        <v>0.60460193916954497</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44">
-        <v>0.9764083104920673</v>
+      <c r="B44" s="2">
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>0.6778241203240919</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>0.97640831049206733</v>
+      </c>
+      <c r="D44">
+        <v>0.67782412032409189</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="2">
+        <v>0</v>
+      </c>
+      <c r="C45">
         <v>0.8020053644035553</v>
       </c>
-      <c r="C45">
-        <v>0.6846096542386679</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0.68460965423866793</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46">
-        <v>0.766059629328704</v>
+      <c r="B46" s="2">
+        <v>0</v>
       </c>
       <c r="C46">
-        <v>0.7330459984714349</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>0.76605962932870397</v>
+      </c>
+      <c r="D46">
+        <v>0.73304599847143492</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47">
-        <v>0.9246597146441313</v>
+      <c r="B47" s="2">
+        <v>0</v>
       </c>
       <c r="C47">
-        <v>0.5103714125836389</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>0.92465971464413133</v>
+      </c>
+      <c r="D47">
+        <v>0.51037141258363894</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48">
-        <v>0.8284501126096714</v>
+      <c r="B48" s="2">
+        <v>0</v>
       </c>
       <c r="C48">
-        <v>0.7909999646041793</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>0.82845011260967139</v>
+      </c>
+      <c r="D48">
+        <v>0.79099996460417932</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49">
-        <v>0.7073048447717694</v>
+      <c r="B49" s="2">
+        <v>0</v>
       </c>
       <c r="C49">
-        <v>0.710801350068535</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.70730484477176936</v>
+      </c>
+      <c r="D49">
+        <v>0.71080135006853495</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50">
-        <v>0.7705579504312</v>
+      <c r="B50" s="2">
+        <v>0</v>
       </c>
       <c r="C50">
-        <v>0.8641424539146146</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>0.77055795043120001</v>
+      </c>
+      <c r="D50">
+        <v>0.86414245391461464</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51">
-        <v>0.3834477396921248</v>
+      <c r="B51" s="2">
+        <v>0</v>
       </c>
       <c r="C51">
-        <v>0.8481151613693063</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>0.38344773969212481</v>
+      </c>
+      <c r="D51">
+        <v>0.84811516136930631</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="2">
+        <v>0</v>
+      </c>
+      <c r="C52">
         <v>1.0855326741497</v>
       </c>
-      <c r="C52">
-        <v>0.7776446856437494</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0.77764468564374944</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53">
-        <v>1.098635310824719</v>
+      <c r="B53" s="2">
+        <v>0</v>
       </c>
       <c r="C53">
-        <v>0.8264858270502058</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>1.0986353108247191</v>
+      </c>
+      <c r="D53">
+        <v>0.82648582705020579</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54">
-        <v>0.5594775757040507</v>
+      <c r="B54" s="2">
+        <v>0</v>
       </c>
       <c r="C54">
+        <v>0.55947757570405066</v>
+      </c>
+      <c r="D54">
         <v>0.8199897230572718</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55">
-        <v>0.8535140469523447</v>
+      <c r="B55" s="2">
+        <v>0</v>
       </c>
       <c r="C55">
-        <v>0.8404072393906019</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>0.85351404695234467</v>
+      </c>
+      <c r="D55">
+        <v>0.84040723939060191</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56">
-        <v>0.6641491287140538</v>
+      <c r="B56" s="2">
+        <v>0</v>
       </c>
       <c r="C56">
-        <v>0.8423560907195493</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>0.66414912871405385</v>
+      </c>
+      <c r="D56">
+        <v>0.84235609071954931</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57">
-        <v>0.6799234837922317</v>
+      <c r="B57" s="2">
+        <v>0</v>
       </c>
       <c r="C57">
-        <v>0.8367923594569617</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+        <v>0.67992348379223166</v>
+      </c>
+      <c r="D57">
+        <v>0.83679235945696173</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58">
-        <v>0.6621286785652588</v>
+      <c r="B58" s="2">
+        <v>0</v>
       </c>
       <c r="C58">
-        <v>0.8250429258979983</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>0.66212867856525881</v>
+      </c>
+      <c r="D58">
+        <v>0.82504292589799832</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59">
-        <v>1.138114807129161</v>
+      <c r="B59" s="2">
+        <v>0</v>
       </c>
       <c r="C59">
-        <v>0.7641877291683212</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>1.1381148071291609</v>
+      </c>
+      <c r="D59">
+        <v>0.76418772916832123</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60">
-        <v>0.6598247253007116</v>
+      <c r="B60" s="2">
+        <v>0</v>
       </c>
       <c r="C60">
-        <v>0.743652178355007</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>0.65982472530071157</v>
+      </c>
+      <c r="D60">
+        <v>0.74365217835500697</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61">
-        <v>0.6571542664098992</v>
+      <c r="B61" s="2">
+        <v>0</v>
       </c>
       <c r="C61">
-        <v>0.7787723683269756</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>0.65715426640989916</v>
+      </c>
+      <c r="D61">
+        <v>0.77877236832697561</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62">
-        <v>0.6954632125079737</v>
+      <c r="B62" s="2">
+        <v>0</v>
       </c>
       <c r="C62">
-        <v>0.7495607984064498</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>0.69546321250797372</v>
+      </c>
+      <c r="D62">
+        <v>0.74956079840644985</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63">
-        <v>0.7297295300524194</v>
+      <c r="B63" s="2">
+        <v>0</v>
       </c>
       <c r="C63">
-        <v>0.83387040491369</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>0.72972953005241936</v>
+      </c>
+      <c r="D63">
+        <v>0.83387040491369002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64">
-        <v>0.6826601611622358</v>
+      <c r="B64" s="2">
+        <v>0</v>
       </c>
       <c r="C64">
-        <v>0.8043290469057283</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>0.68266016116223582</v>
+      </c>
+      <c r="D64">
+        <v>0.80432904690572826</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65">
-        <v>0.6473396601027941</v>
+      <c r="B65" s="2">
+        <v>0</v>
       </c>
       <c r="C65">
-        <v>0.720585284316357</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>0.64733966010279409</v>
+      </c>
+      <c r="D65">
+        <v>0.72058528431635704</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66">
-        <v>0.6739358207680088</v>
+      <c r="B66" s="2">
+        <v>0</v>
       </c>
       <c r="C66">
+        <v>0.67393582076800884</v>
+      </c>
+      <c r="D66">
         <v>0.7676608147468712</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67">
-        <v>0.6512260328284478</v>
+      <c r="B67" s="2">
+        <v>0</v>
       </c>
       <c r="C67">
-        <v>0.7600842783388371</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>0.65122603282844782</v>
+      </c>
+      <c r="D67">
+        <v>0.76008427833883707</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="2">
+        <v>0</v>
+      </c>
+      <c r="C68">
         <v>0.8141750726920487</v>
       </c>
-      <c r="C68">
-        <v>0.7284534933260924</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+      <c r="D68">
+        <v>0.72845349332609244</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69">
-        <v>0.6265520116864576</v>
+      <c r="B69" s="2">
+        <v>0</v>
       </c>
       <c r="C69">
-        <v>0.738469003648872</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>0.62655201168645758</v>
+      </c>
+      <c r="D69">
+        <v>0.73846900364887202</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="2">
+        <v>0</v>
+      </c>
+      <c r="C70">
         <v>0.6981829693854783</v>
       </c>
-      <c r="C70">
-        <v>0.7590365100262236</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+      <c r="D70">
+        <v>0.75903651002622363</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71">
-        <v>0.9426415651937848</v>
+      <c r="B71" s="2">
+        <v>0</v>
       </c>
       <c r="C71">
-        <v>0.6690946201412566</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.94264156519378484</v>
+      </c>
+      <c r="D71">
+        <v>0.66909462014125665</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="2">
+        <v>0</v>
+      </c>
+      <c r="C72">
         <v>0.6896964152756293</v>
       </c>
-      <c r="C72">
-        <v>0.6325116470856131</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+      <c r="D72">
+        <v>0.63251164708561314</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73">
-        <v>0.8729508339820095</v>
+      <c r="B73" s="2">
+        <v>0</v>
       </c>
       <c r="C73">
-        <v>0.83340676932354</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>0.87295083398200946</v>
+      </c>
+      <c r="D73">
+        <v>0.83340676932353996</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74">
-        <v>0.761112193774955</v>
+      <c r="B74" s="2">
+        <v>0</v>
       </c>
       <c r="C74">
-        <v>0.7623250525393179</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>0.76111219377495498</v>
+      </c>
+      <c r="D74">
+        <v>0.76232505253931793</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75">
-        <v>0.7847497122509798</v>
+      <c r="B75" s="2">
+        <v>0</v>
       </c>
       <c r="C75">
-        <v>0.7688682485753264</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>0.78474971225097978</v>
+      </c>
+      <c r="D75">
+        <v>0.76886824857532643</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76">
-        <v>0.8940201148194926</v>
+      <c r="B76" s="2">
+        <v>0</v>
       </c>
       <c r="C76">
-        <v>0.7815137425835036</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>0.89402011481949262</v>
+      </c>
+      <c r="D76">
+        <v>0.78151374258350359</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77">
-        <v>0.4892514375682542</v>
+      <c r="B77" s="2">
+        <v>0</v>
       </c>
       <c r="C77">
-        <v>0.8806869022724543</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>0.48925143756825418</v>
+      </c>
+      <c r="D77">
+        <v>0.88068690227245428</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78">
-        <v>0.7504822213014505</v>
+      <c r="B78" s="2">
+        <v>0</v>
       </c>
       <c r="C78">
-        <v>0.749293908614163</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>0.75048222130145048</v>
+      </c>
+      <c r="D78">
+        <v>0.74929390861416301</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79">
-        <v>0.7738769359072074</v>
+      <c r="B79" s="2">
+        <v>0</v>
       </c>
       <c r="C79">
-        <v>0.6996034294868694</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>0.77387693590720741</v>
+      </c>
+      <c r="D79">
+        <v>0.69960342948686938</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B80">
-        <v>0.9031798068204613</v>
+      <c r="B80" s="2">
+        <v>0</v>
       </c>
       <c r="C80">
-        <v>0.7689118100829815</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>0.90317980682046128</v>
+      </c>
+      <c r="D80">
+        <v>0.76891181008298148</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B81">
-        <v>0.6220714719738356</v>
+      <c r="B81" s="2">
+        <v>0</v>
       </c>
       <c r="C81">
-        <v>0.8522129008728728</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>0.62207147197383561</v>
+      </c>
+      <c r="D81">
+        <v>0.85221290087287282</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B82">
-        <v>0.650812169848094</v>
+      <c r="B82" s="2">
+        <v>0</v>
       </c>
       <c r="C82">
-        <v>0.7722561029987571</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.65081216984809398</v>
+      </c>
+      <c r="D82">
+        <v>0.77225610299875713</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B83">
-        <v>0.7736786940953193</v>
+      <c r="B83" s="2">
+        <v>0</v>
       </c>
       <c r="C83">
-        <v>0.7452303820915163</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>0.77367869409531931</v>
+      </c>
+      <c r="D83">
+        <v>0.74523038209151626</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="2">
+        <v>0</v>
+      </c>
+      <c r="C84">
         <v>0.7929056655012845</v>
       </c>
-      <c r="C84">
-        <v>0.7824588934417789</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+      <c r="D84">
+        <v>0.78245889344177888</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85">
-        <v>0.5232947862709582</v>
+      <c r="B85" s="2">
+        <v>0</v>
       </c>
       <c r="C85">
-        <v>0.8815486266568348</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>0.52329478627095816</v>
+      </c>
+      <c r="D85">
+        <v>0.88154862665683476</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86">
-        <v>0.7087750220529117</v>
+      <c r="B86" s="2">
+        <v>0</v>
       </c>
       <c r="C86">
-        <v>0.8502989409430429</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>0.70877502205291165</v>
+      </c>
+      <c r="D86">
+        <v>0.85029894094304292</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B87">
-        <v>1.076806749214403</v>
+      <c r="B87" s="2">
+        <v>0</v>
       </c>
       <c r="C87">
-        <v>0.6051872339102918</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>1.0768067492144029</v>
+      </c>
+      <c r="D87">
+        <v>0.60518723391029183</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88">
-        <v>0.271560502267549</v>
+      <c r="B88" s="2">
+        <v>0</v>
       </c>
       <c r="C88">
-        <v>0.6616785294580266</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>0.27156050226754902</v>
+      </c>
+      <c r="D88">
+        <v>0.66167852945802663</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="2">
+        <v>0</v>
+      </c>
+      <c r="C89">
         <v>1.102154871273981</v>
       </c>
-      <c r="C89">
-        <v>0.7302331425460359</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+      <c r="D89">
+        <v>0.73023314254603588</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B90">
-        <v>0.9494609201289883</v>
+      <c r="B90" s="2">
+        <v>0</v>
       </c>
       <c r="C90">
-        <v>0.7830547399776016</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>0.94946092012898831</v>
+      </c>
+      <c r="D90">
+        <v>0.78305473997760155</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="2">
+        <v>0</v>
+      </c>
+      <c r="C91">
         <v>1.055832031389597</v>
       </c>
-      <c r="C91">
-        <v>0.654508328000529</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+      <c r="D91">
+        <v>0.65450832800052905</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="2">
+        <v>0</v>
+      </c>
+      <c r="C92">
         <v>0.6514353166066138</v>
       </c>
-      <c r="C92">
-        <v>0.8786414309403315</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+      <c r="D92">
+        <v>0.87864143094033154</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="B93">
-        <v>1.022506874734742</v>
+      <c r="B93" s="2">
+        <v>0</v>
       </c>
       <c r="C93">
-        <v>0.7002580621106673</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>1.0225068747347421</v>
+      </c>
+      <c r="D93">
+        <v>0.70025806211066732</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="2">
+        <v>0</v>
+      </c>
+      <c r="C94">
         <v>1.218093083275658</v>
       </c>
-      <c r="C94">
-        <v>0.605042865436771</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+      <c r="D94">
+        <v>0.60504286543677099</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
-      <c r="B95">
-        <v>1.275017970692592</v>
+      <c r="B95" s="2">
+        <v>0</v>
       </c>
       <c r="C95">
+        <v>1.2750179706925919</v>
+      </c>
+      <c r="D95">
         <v>0.5728647698141397</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
-      <c r="B96">
-        <v>1.370791804695436</v>
+      <c r="B96" s="2">
+        <v>0</v>
       </c>
       <c r="C96">
-        <v>0.6360856415992825</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>1.3707918046954359</v>
+      </c>
+      <c r="D96">
+        <v>0.63608564159928249</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="B97">
-        <v>0.7890098752870887</v>
+      <c r="B97" s="2">
+        <v>0</v>
       </c>
       <c r="C97">
+        <v>0.78900987528708866</v>
+      </c>
+      <c r="D97">
         <v>0.8631724130791486</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="B98">
-        <v>0.7410887154659093</v>
+      <c r="B98" s="2">
+        <v>0</v>
       </c>
       <c r="C98">
-        <v>0.8425097645773117</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>0.74108871546590926</v>
+      </c>
+      <c r="D98">
+        <v>0.84250976457731175</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="2">
+        <v>0</v>
+      </c>
+      <c r="C99">
         <v>0.413996823809408</v>
       </c>
-      <c r="C99">
-        <v>0.8360190846017185</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+      <c r="D99">
+        <v>0.83601908460171848</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="B100">
-        <v>0.8959467345734805</v>
+      <c r="B100" s="2">
+        <v>0</v>
       </c>
       <c r="C100">
-        <v>0.8086970663025475</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>0.89594673457348051</v>
+      </c>
+      <c r="D100">
+        <v>0.80869706630254745</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
-      <c r="B101">
-        <v>0.9200671891779613</v>
+      <c r="B101" s="2">
+        <v>0</v>
       </c>
       <c r="C101">
-        <v>0.7840341320503642</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>0.92006718917796126</v>
+      </c>
+      <c r="D101">
+        <v>0.78403413205036421</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="2">
+        <v>0</v>
+      </c>
+      <c r="C102">
         <v>1.037722595163864</v>
       </c>
-      <c r="C102">
-        <v>0.8296526415664298</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0.82965264156642982</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
-      <c r="B103">
-        <v>1.211406100512962</v>
+      <c r="B103" s="2">
+        <v>0</v>
       </c>
       <c r="C103">
-        <v>0.83513769461069</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
+        <v>1.2114061005129619</v>
+      </c>
+      <c r="D103">
+        <v>0.83513769461068998</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>102</v>
       </c>
-      <c r="B104">
-        <v>0.9046874790281897</v>
+      <c r="B104" s="2">
+        <v>0</v>
       </c>
       <c r="C104">
-        <v>0.7675709210514678</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
+        <v>0.90468747902818969</v>
+      </c>
+      <c r="D104">
+        <v>0.76757092105146785</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>103</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="2">
+        <v>0</v>
+      </c>
+      <c r="C105">
         <v>1.080480404664474</v>
       </c>
-      <c r="C105">
-        <v>0.6330954278232829</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
+      <c r="D105">
+        <v>0.63309542782328287</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>104</v>
       </c>
-      <c r="B106">
-        <v>0.7409529038358972</v>
+      <c r="B106" s="2">
+        <v>0</v>
       </c>
       <c r="C106">
-        <v>0.8838543720587103</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
+        <v>0.74095290383589718</v>
+      </c>
+      <c r="D106">
+        <v>0.88385437205871031</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>105</v>
       </c>
-      <c r="B107">
-        <v>0.8230215979464001</v>
+      <c r="B107" s="2">
+        <v>0</v>
       </c>
       <c r="C107">
-        <v>0.8313978295544585</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
+        <v>0.82302159794640006</v>
+      </c>
+      <c r="D107">
+        <v>0.83139782955445851</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>106</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="2">
+        <v>0</v>
+      </c>
+      <c r="C108">
         <v>0.8170857636371166</v>
       </c>
-      <c r="C108">
-        <v>0.7278328717751016</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
+      <c r="D108">
+        <v>0.72783287177510159</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>107</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="2">
+        <v>0</v>
+      </c>
+      <c r="C109">
         <v>1.203532003507938</v>
       </c>
-      <c r="C109">
-        <v>0.7466770232632525</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
+      <c r="D109">
+        <v>0.74667702326325247</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>108</v>
       </c>
-      <c r="B110">
-        <v>0.7962592350406638</v>
+      <c r="B110" s="2">
+        <v>0</v>
       </c>
       <c r="C110">
-        <v>0.8517778691087157</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
+        <v>0.79625923504066376</v>
+      </c>
+      <c r="D110">
+        <v>0.85177786910871567</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>109</v>
       </c>
-      <c r="B111">
-        <v>0.6634750964591362</v>
+      <c r="B111" s="2">
+        <v>0</v>
       </c>
       <c r="C111">
-        <v>0.8897536777460103</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
+        <v>0.66347509645913616</v>
+      </c>
+      <c r="D111">
+        <v>0.88975367774601033</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>110</v>
       </c>
-      <c r="B112">
-        <v>1.149666344255435</v>
+      <c r="B112" s="2">
+        <v>0</v>
       </c>
       <c r="C112">
-        <v>0.7187857584009102</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
+        <v>1.1496663442554349</v>
+      </c>
+      <c r="D112">
+        <v>0.71878575840091019</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>111</v>
       </c>
-      <c r="B113">
-        <v>0.9917324919359113</v>
+      <c r="B113" s="2">
+        <v>0</v>
       </c>
       <c r="C113">
-        <v>0.848551272908896</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
+        <v>0.99173249193591129</v>
+      </c>
+      <c r="D113">
+        <v>0.84855127290889598</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>112</v>
       </c>
-      <c r="B114">
-        <v>0.9941525599155738</v>
+      <c r="B114" s="2">
+        <v>0</v>
       </c>
       <c r="C114">
+        <v>0.99415255991557383</v>
+      </c>
+      <c r="D114">
         <v>0.8297331416985172</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>113</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="2">
+        <v>0</v>
+      </c>
+      <c r="C115">
         <v>1.10494510303657</v>
       </c>
-      <c r="C115">
-        <v>0.6972599423706557</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
+      <c r="D115">
+        <v>0.69725994237065569</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>114</v>
       </c>
-      <c r="B116">
-        <v>0.4876425633047204</v>
+      <c r="B116" s="2">
+        <v>0</v>
       </c>
       <c r="C116">
-        <v>0.6535208586146276</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
+        <v>0.48764256330472039</v>
+      </c>
+      <c r="D116">
+        <v>0.65352085861462761</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>115</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="2">
+        <v>0</v>
+      </c>
+      <c r="C117">
         <v>1.63537778382879</v>
       </c>
-      <c r="C117">
-        <v>0.5324699603205942</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
+      <c r="D117">
+        <v>0.53246996032059424</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>116</v>
       </c>
-      <c r="B118">
-        <v>1.317024190128279</v>
+      <c r="B118" s="2">
+        <v>0</v>
       </c>
       <c r="C118">
+        <v>1.3170241901282791</v>
+      </c>
+      <c r="D118">
         <v>0.5914214976509069</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>117</v>
       </c>
-      <c r="B119">
-        <v>1.004238253163691</v>
+      <c r="B119" s="2">
+        <v>0</v>
       </c>
       <c r="C119">
-        <v>0.7629849526267017</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
+        <v>1.0042382531636911</v>
+      </c>
+      <c r="D119">
+        <v>0.76298495262670174</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>118</v>
       </c>
-      <c r="B120">
+      <c r="B120" s="2">
+        <v>0</v>
+      </c>
+      <c r="C120">
         <v>1.051538881560053</v>
       </c>
-      <c r="C120">
-        <v>0.5781309543852243</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
+      <c r="D120">
+        <v>0.57813095438522433</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>119</v>
       </c>
-      <c r="B121">
-        <v>0.780588852808884</v>
+      <c r="B121" s="2">
+        <v>0</v>
       </c>
       <c r="C121">
-        <v>0.8586556389245675</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
+        <v>0.78058885280888402</v>
+      </c>
+      <c r="D121">
+        <v>0.85865563892456753</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>120</v>
       </c>
-      <c r="B122">
-        <v>0.7458111910776595</v>
+      <c r="B122" s="2">
+        <v>0</v>
       </c>
       <c r="C122">
-        <v>0.6846882492207214</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
+        <v>0.74581119107765947</v>
+      </c>
+      <c r="D122">
+        <v>0.68468824922072136</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>121</v>
       </c>
-      <c r="B123">
-        <v>0.5113434768436086</v>
+      <c r="B123" s="2">
+        <v>0</v>
       </c>
       <c r="C123">
+        <v>0.51134347684360859</v>
+      </c>
+      <c r="D123">
         <v>0.8054634494931715</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>122</v>
       </c>
-      <c r="B124">
-        <v>0.3691001340536504</v>
+      <c r="B124" s="2">
+        <v>0</v>
       </c>
       <c r="C124">
+        <v>0.36910013405365039</v>
+      </c>
+      <c r="D124">
         <v>0.8241880776901277</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>123</v>
       </c>
-      <c r="B125">
+      <c r="B125" s="2">
+        <v>0</v>
+      </c>
+      <c r="C125">
         <v>0.7552278241337318</v>
       </c>
-      <c r="C125">
-        <v>0.8159298372644286</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
+      <c r="D125">
+        <v>0.81592983726442858</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>124</v>
       </c>
-      <c r="B126">
-        <v>0.5334491643818139</v>
+      <c r="B126" s="2">
+        <v>0</v>
       </c>
       <c r="C126">
-        <v>0.8742596563609193</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
+        <v>0.53344916438181389</v>
+      </c>
+      <c r="D126">
+        <v>0.87425965636091929</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>125</v>
       </c>
-      <c r="B127">
+      <c r="B127" s="2">
+        <v>0</v>
+      </c>
+      <c r="C127">
         <v>1.043259284265055</v>
       </c>
-      <c r="C127">
-        <v>0.7207851504203416</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
+      <c r="D127">
+        <v>0.72078515042034164</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>126</v>
       </c>
-      <c r="B128">
-        <v>0.7346713926267527</v>
+      <c r="B128" s="2">
+        <v>0</v>
       </c>
       <c r="C128">
-        <v>0.791801324613408</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
+        <v>0.73467139262675274</v>
+      </c>
+      <c r="D128">
+        <v>0.79180132461340802</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>127</v>
       </c>
-      <c r="B129">
-        <v>0.7953244059308636</v>
+      <c r="B129" s="2">
+        <v>0</v>
       </c>
       <c r="C129">
-        <v>0.8395500870407225</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
+        <v>0.79532440593086362</v>
+      </c>
+      <c r="D129">
+        <v>0.83955008704072254</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>128</v>
       </c>
-      <c r="B130">
-        <v>0.482997669537612</v>
+      <c r="B130" s="2">
+        <v>0</v>
       </c>
       <c r="C130">
-        <v>0.7675694780868306</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
+        <v>0.48299766953761197</v>
+      </c>
+      <c r="D130">
+        <v>0.76756947808683063</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>129</v>
       </c>
-      <c r="B131">
-        <v>0.8241585547452464</v>
+      <c r="B131" s="2">
+        <v>0</v>
       </c>
       <c r="C131">
-        <v>0.7207157758852475</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
+        <v>0.82415855474524635</v>
+      </c>
+      <c r="D131">
+        <v>0.72071577588524749</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>130</v>
       </c>
-      <c r="B132">
+      <c r="B132" s="2">
+        <v>0</v>
+      </c>
+      <c r="C132">
         <v>0.1852332499961846</v>
       </c>
-      <c r="C132">
-        <v>0.8418093347598016</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
+      <c r="D132">
+        <v>0.84180933475980158</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>131</v>
       </c>
-      <c r="B133">
-        <v>0.9617752050966361</v>
+      <c r="B133" s="2">
+        <v>0</v>
       </c>
       <c r="C133">
-        <v>0.4688091285265842</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
+        <v>0.96177520509663605</v>
+      </c>
+      <c r="D133">
+        <v>0.46880912852658418</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>132</v>
       </c>
-      <c r="B134">
-        <v>1.686283292246673</v>
+      <c r="B134" s="2">
+        <v>0</v>
       </c>
       <c r="C134">
+        <v>1.6862832922466731</v>
+      </c>
+      <c r="D134">
         <v>0.3616531882405053</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>133</v>
       </c>
-      <c r="B135">
-        <v>0.6801379576381509</v>
+      <c r="B135" s="2">
+        <v>0</v>
       </c>
       <c r="C135">
-        <v>0.7414444832796449</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
+        <v>0.68013795763815088</v>
+      </c>
+      <c r="D135">
+        <v>0.74144448327964485</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>134</v>
       </c>
-      <c r="B136">
+      <c r="B136" s="2">
+        <v>0</v>
+      </c>
+      <c r="C136">
         <v>1.124906690127967</v>
       </c>
-      <c r="C136">
-        <v>0.6555658983528911</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
+      <c r="D136">
+        <v>0.65556589835289114</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>135</v>
       </c>
-      <c r="B137">
+      <c r="B137" s="2">
+        <v>0</v>
+      </c>
+      <c r="C137">
         <v>0.8994444377760038</v>
       </c>
-      <c r="C137">
-        <v>0.7130614790500175</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
+      <c r="D137">
+        <v>0.71306147905001749</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>136</v>
       </c>
-      <c r="B138">
+      <c r="B138" s="2">
+        <v>0</v>
+      </c>
+      <c r="C138">
         <v>1.036711539267132</v>
       </c>
-      <c r="C138">
-        <v>0.7278638531128713</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
+      <c r="D138">
+        <v>0.72786385311287127</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>137</v>
       </c>
-      <c r="B139">
-        <v>0.6775231285929448</v>
+      <c r="B139" s="2">
+        <v>0</v>
       </c>
       <c r="C139">
+        <v>0.67752312859294483</v>
+      </c>
+      <c r="D139">
         <v>0.714022614583118</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>138</v>
       </c>
-      <c r="B140">
-        <v>0.7632273273134292</v>
+      <c r="B140" s="2">
+        <v>0</v>
       </c>
       <c r="C140">
-        <v>0.7507993024302045</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
+        <v>0.76322732731342924</v>
+      </c>
+      <c r="D140">
+        <v>0.75079930243020454</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>139</v>
       </c>
-      <c r="B141">
-        <v>0.3456051888304922</v>
+      <c r="B141" s="2">
+        <v>0</v>
       </c>
       <c r="C141">
-        <v>0.73022640850554</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
+        <v>0.34560518883049218</v>
+      </c>
+      <c r="D141">
+        <v>0.73022640850553999</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>140</v>
       </c>
-      <c r="B142">
+      <c r="B142" s="2">
+        <v>0</v>
+      </c>
+      <c r="C142">
         <v>1.175825713336107</v>
       </c>
-      <c r="C142">
-        <v>0.6815168014066674</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
+      <c r="D142">
+        <v>0.68151680140666737</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>141</v>
       </c>
-      <c r="B143">
-        <v>0.8633023175522437</v>
+      <c r="B143" s="2">
+        <v>0</v>
       </c>
       <c r="C143">
-        <v>0.6424493216058227</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
+        <v>0.86330231755224374</v>
+      </c>
+      <c r="D143">
+        <v>0.64244932160582269</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>142</v>
       </c>
-      <c r="B144">
-        <v>0.8385458324862873</v>
+      <c r="B144" s="2">
+        <v>0</v>
       </c>
       <c r="C144">
+        <v>0.83854583248628733</v>
+      </c>
+      <c r="D144">
         <v>0.8300076317118642</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>143</v>
       </c>
-      <c r="B145">
-        <v>0.5653232247615428</v>
+      <c r="B145" s="2">
+        <v>0</v>
       </c>
       <c r="C145">
-        <v>0.7965675830909774</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
+        <v>0.56532322476154284</v>
+      </c>
+      <c r="D145">
+        <v>0.79656758309097742</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>144</v>
       </c>
-      <c r="B146">
+      <c r="B146" s="2">
+        <v>0</v>
+      </c>
+      <c r="C146">
         <v>1.013009476466044</v>
       </c>
-      <c r="C146">
-        <v>0.8728653513842342</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
+      <c r="D146">
+        <v>0.87286535138423416</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>145</v>
       </c>
-      <c r="B147">
-        <v>0.184336628985359</v>
+      <c r="B147" s="2">
+        <v>0</v>
       </c>
       <c r="C147">
+        <v>0.18433662898535899</v>
+      </c>
+      <c r="D147">
         <v>0.9066270093112222</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>146</v>
       </c>
-      <c r="B148">
-        <v>0.7931513240017818</v>
+      <c r="B148" s="2">
+        <v>0</v>
       </c>
       <c r="C148">
-        <v>0.7503079804939066</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
+        <v>0.79315132400178179</v>
+      </c>
+      <c r="D148">
+        <v>0.75030798049390657</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>147</v>
       </c>
-      <c r="B149">
-        <v>0.6751931578945279</v>
+      <c r="B149" s="2">
+        <v>0</v>
       </c>
       <c r="C149">
-        <v>0.7928882002356858</v>
+        <v>0.67519315789452794</v>
+      </c>
+      <c r="D149">
+        <v>0.79288820023568585</v>
       </c>
     </row>
   </sheetData>
